--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_18_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_18_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33843.38977940268</v>
+        <v>6734834.566101135</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33843.38977940268</v>
+        <v>6734834.566101135</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18998.0564023303</v>
+        <v>1146088.991917405</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18998.0564023303</v>
+        <v>1146088.991917405</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266398727.30268</v>
+        <v>51699658.74948794</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11704.91633841395</v>
+        <v>1266926.15395135</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22033.96918239295</v>
+        <v>2305912.21222574</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32363.02202637194</v>
+        <v>3344898.270500132</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43232.38636991256</v>
+        <v>4349317.64510647</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54101.75071345315</v>
+        <v>5353737.019712809</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64971.11505699374</v>
+        <v>6358156.394319144</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75840.47940053433</v>
+        <v>7362575.768925478</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>86709.84374407493</v>
+        <v>8366995.14353181</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>97382.89065422698</v>
+        <v>9370259.30779401</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>108088.0102916505</v>
+        <v>10379905.94478373</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>118793.1299290723</v>
+        <v>11389552.58177354</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>129498.2495664912</v>
+        <v>12399199.21876368</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>140203.3692039102</v>
+        <v>13408845.85575382</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>150908.4888413348</v>
+        <v>14418492.49274332</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>161613.6084787595</v>
+        <v>15428139.12973281</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>288.0000000001141</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
